--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_118.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_118.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,622 +488,652 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_0</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2022988505747126</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G#:dim7', 'F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_128</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2385964912280702</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:dim7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(74.54, 78.52)]</t>
+          <t>[['C', 'F', 'C', 'F']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(62.36, 66.92)]</t>
+          <t>[('0:01:45', '0:01:48.540000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>[('0:00:10.634761', '0:00:19.597664')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2767857142857143</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:7', 'C:maj'], ['G:7', 'C:maj', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2153846153846154</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['D:7', 'G:maj', 'G:min']]</t>
+          <t>[['A#:maj/F', 'F:7', 'A#:maj'], ['A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(0.6, 9.94), (30.94, 40.54)]</t>
+          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(64.3, 65.72), (64.92, 67.9)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:01:40.400000', '0:01:48.820000'), ('0:00:18', '0:00:26.460000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:01:20.160000', '0:01:26.120000'), ('0:01:49.520000', '0:01:54.200000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2125874125874126</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(0.36, 3.02)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(49.34, 61.68)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:55.680000', '0:01:02.280000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_246</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1205357142857143</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jaah_86</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2635135135135135</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'G']]</t>
+          <t>[['D:maj', 'A:7/G', 'D:maj/F#', 'D:maj/A'], ['D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(55.641383, 61.040381)]</t>
+          <t>[['Bb', 'F:7', 'Bb', 'Bb'], ['Bb', 'Bb', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(5.89263, 8.504874)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:03:40.960000', '0:03:52.160000'), ('0:04:02.060000', '0:04:14.260000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:14.820000', '0:00:17.230000'), ('0:00:14.590000', '0:00:16.260000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(32.44, 34.8)]</t>
+          <t>[['F:7', 'A#:min', 'A#:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(35.14, 39.9)]</t>
+          <t>[('0:00:04.260000', '0:00:08.680000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>[('0:00:16.260000', '0:00:21.140000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2392241379310345</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
-        </is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_79</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.09738372093023256</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(55.58, 62.32)]</t>
+          <t>[['E', 'B', 'E']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(5.20815, 11.03585)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
+          <t>[('0:00:09.920000', '0:00:11.960000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:04.103323', '0:00:13.890534')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_67</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0817009077878643</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#']]</t>
-        </is>
+          <t>schubert-winterreise_100</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'F']]</t>
+          <t>[['A:min', 'E:(3,5,b7,b9)/A', 'A:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(20.42, 22.86)]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(9.18, 12.7)]</t>
+          <t>[('0:00:32.380000', '0:00:46.680000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:42.400000', '0:02:01.440000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3809523809523809</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
-        </is>
+          <t>schubert-winterreise_44</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_193</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C', 'F/5', 'C']]</t>
+          <t>[['A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'G#/C', 'G#:7', 'C#', 'A#:min', 'D#:7/A#', 'G#', 'C#/F', 'G#:7/D#', 'C#/F', 'G#:7', 'C#', 'C:dim7/C#', 'C#:7', 'F#', 'D#:min', 'G#:7/D#', 'C#', 'F#/A#', 'C#:7/G#', 'F#/A#', 'C#', 'F#', 'C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'A:dim7/A#', 'A#:min', 'D#:min', 'A#:min/F', 'D#:min7/F#', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(61.48, 63.58)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(5.121, 12.601)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:15.900000', '0:01:46.380000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:16.060000', '0:01:39.240000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1302083333333333</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A/3', 'D', 'A']]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(60.76, 64.36)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(65.81034, 71.679931)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2223837209302326</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(61.88, 67.8)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(93.1, 111.54)]</t>
+          <t>[('0:01:53.020000', '0:01:54.760000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:00:33', '0:00:48.220000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F', 'Bb', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(15.124263, 20.058503)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(67.14, 70.82)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:19.260000', '0:00:22.260000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:01.440000', '0:01:04.220000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_71</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07672413793103448</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7'], ['Eb', 'C:min', 'F:7']]</t>
-        </is>
+          <t>schubert-winterreise_75</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G#:7/D#', 'C#/F', 'G#:7'], ['C#', 'A#:min', 'D#:7/A#']]</t>
+          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(82.09, 89.29), (96.49, 99.19)]</t>
+          <t>[['A:min', 'E', 'A:min', 'E', 'A:min', 'E', 'A:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(44.06, 46.5), (39.06, 41.48)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:45.720000', '0:00:59.980000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:38.841000', '0:00:47.891000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_43</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1142857142857143</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Bb', 'Bb', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb', 'Eb', 'Eb']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(52.12, 55.48)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(40.59, 46.47)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:46.340000', '0:01:37.480000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:47.800000', '0:01:38.980000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3452380952380952</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E:maj', 'B:7/A', 'E:maj/G#', 'E:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:maj']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(207.92, 219.14)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(72.82, 84.38)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:24.660000', '0:00:27.760000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:58.780000', '0:01:01.540000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_42</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1274509803921569</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj/F#', 'A:min/E']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(92.723, 97.603)]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(85.66, 88.64)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:47.860000', '0:01:35.840000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:40.100000', '0:01:24.580000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_178</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jaah_21</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1678571428571429</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:7', 'G:7']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab:7', 'Ab:7']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(8.063696, 17.500916)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(32.39, 35.3)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
